--- a/Input/Medgulf/benefits1.xlsx
+++ b/Input/Medgulf/benefits1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t xml:space="preserve">Plan Name</t>
   </si>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">residency</t>
   </si>
   <si>
-    <t xml:space="preserve">Family Care Product</t>
+    <t xml:space="preserve">All</t>
   </si>
   <si>
     <t xml:space="preserve">AED 1,000,000</t>
@@ -301,85 +301,65 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">20% with AED 50 max,diagnostics 0%, pharma 0%/Nil/Nil/50</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Phama Nil co-pay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/Nil/Nil/50</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">2023-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">medgulf</t>
+    <t xml:space="preserve">medgulf_mednet</t>
   </si>
   <si>
     <t xml:space="preserve">UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">20% with AED 50 max,diagnostics 0%, pharma 10%/10%/Nil/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 50 max,diagnostics 0%, pharma 20%/20%/Nil/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 50 max,diagnostics 0%, pharma 30%/30%/Nil/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 50 max,diagnostics 10%, pharma 0%/Nil/10%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 50 max,diagnostics 10%, pharma 10%/10%/10%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 50 max,diagnostics 10%, pharma 20%/20%/10%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 50 max,diagnostics 10%, pharma 30%/30%/10%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 50 max,diagnostics 20%, pharma 0%/Nil/20%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 50 max,diagnostics 20%, pharma 10%/10%/20%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 50 max,diagnostics 20%, pharma 20%/20%/20%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 50 max,diagnostics 20%, pharma 30%/30%/20%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 75 max,diagnostics 0%, pharma 0%/Nil/Nil/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 75 max,diagnostics 0%, pharma 10%/10%/Nil/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 75 max,diagnostics 0%, pharma 20%/20%/Nil/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 75 max,diagnostics 0%, pharma 30%/30%/Nil/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 75 max,diagnostics 10%, pharma 0%/Nil/10%/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 75 max,diagnostics 10%, pharma 10%/10%/10%/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 75 max,diagnostics 10%, pharma 20%/20%/10%/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 75 max,diagnostics 10%, pharma 30%/30%/10%/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 75 max,diagnostics 20%, pharma 0%/Nil/20%/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 75 max,diagnostics 20%, pharma 10%/10%/20%/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 75 max,diagnostics 20%, pharma 20%/20%/20%/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% with AED 75 max,diagnostics 20%, pharma 30%/30%/20%/75</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Phama 10% co-pay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/10%/10%/50</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Phama 20% co-pay/20%/20%/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations 20% co-pay with AED 75 max, Diagnostics, Physio, and Phama Nil co-pay/Nil/Nil/75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations 20% co-pay with AED 75 max, Diagnostics, Physio, and Phama 10% co-pay/10%/10%/75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations 20% co-pay with AED 75 max, Diagnostics, Physio, and Phama 20% co-pay/20%/20%/75</t>
   </si>
 </sst>
 </file>
@@ -461,7 +441,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -474,8 +454,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -495,10 +483,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BH25"/>
+  <dimension ref="A1:BH7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AR1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BB1" activeCellId="0" sqref="BB1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BD1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BG6" activeCellId="0" sqref="BG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -509,7 +497,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="32.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="56" min="23" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="60.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="90.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="58" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -836,10 +824,10 @@
       <c r="BD2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BE2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BF2" s="4" t="s">
         <v>89</v>
       </c>
       <c r="BG2" s="0" t="s">
@@ -849,13 +837,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE3" s="2" t="s">
+    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE3" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE4" s="2" t="s">
+      <c r="BE4" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -869,99 +857,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE7" s="2" t="s">
+    <row r="7" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BE7" s="5" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE8" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE9" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE10" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE11" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE12" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE13" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE14" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE15" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE16" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE17" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE18" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE19" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE20" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE21" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE22" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE23" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE24" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BE25" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
